--- a/training/output/LRSADTLM/T/T2_T1.xlsx
+++ b/training/output/LRSADTLM/T/T2_T1.xlsx
@@ -447,482 +447,482 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.665</v>
+        <v>0.9675</v>
       </c>
       <c r="B2" t="n">
-        <v>2.048842782974243</v>
+        <v>1.771687269210815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8325</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>1.722253842353821</v>
+        <v>1.570865316390991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.91</v>
+        <v>0.9925</v>
       </c>
       <c r="B4" t="n">
-        <v>1.555579886436463</v>
+        <v>1.497476663589478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.965</v>
+        <v>0.995</v>
       </c>
       <c r="B5" t="n">
-        <v>1.611778373718262</v>
+        <v>1.509415593147278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9675</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1.535285143852234</v>
+        <v>1.460690722465515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9825</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1.447711987495422</v>
+        <v>1.430448246002197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1.500957007408142</v>
+        <v>1.450706315040588</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1.478051662445068</v>
+        <v>1.435079579353332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>1.491296792030334</v>
+        <v>1.436296429634094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>1.429697847366333</v>
+        <v>1.417852101325989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>1.420240144729614</v>
+        <v>1.413613362312317</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>1.423316650390625</v>
+        <v>1.41193763256073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>1.411988654136658</v>
+        <v>1.409694094657898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1.418716297149658</v>
+        <v>1.412987461090088</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1.429099407196045</v>
+        <v>1.420992002487183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>1.42000364780426</v>
+        <v>1.409343485832214</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1.428014302253723</v>
+        <v>1.410009536743164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1.42790506362915</v>
+        <v>1.411701412200928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.96</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>1.431763067245483</v>
+        <v>1.41042959690094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9775</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1.504173612594605</v>
+        <v>1.416335563659668</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>1.419928593635559</v>
+        <v>1.404784083366394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9875</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>1.480147700309753</v>
+        <v>1.422825517654419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>1.414960527420044</v>
+        <v>1.402239570617676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>1.472088193893433</v>
+        <v>1.416175651550293</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1.410169491767883</v>
+        <v>1.402478985786438</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1.450382871627808</v>
+        <v>1.402269196510315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1.41814046382904</v>
+        <v>1.399221811294556</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>1.458422722816467</v>
+        <v>1.406579117774963</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1.416816277503967</v>
+        <v>1.403038563728332</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1.439121112823486</v>
+        <v>1.398970198631287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>1.431778407096863</v>
+        <v>1.397778496742249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>1.451479940414429</v>
+        <v>1.399510135650635</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>1.44633996963501</v>
+        <v>1.398468751907349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>1.403298602104187</v>
+        <v>1.395426106452942</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1.415783834457397</v>
+        <v>1.397920179367065</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1.403862595558167</v>
+        <v>1.396245255470276</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9625</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>1.510503544807434</v>
+        <v>1.406023621559143</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.985</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B39" t="n">
-        <v>1.411385388374329</v>
+        <v>1.397240414619446</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.985</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>1.433789191246033</v>
+        <v>1.408946485519409</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.98</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B41" t="n">
-        <v>1.422864460945129</v>
+        <v>1.397114849090576</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>1.394068651199341</v>
+        <v>1.391963310241699</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>1.428932151794434</v>
+        <v>1.399310111999512</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9875</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1.436364507675171</v>
+        <v>1.398879728317261</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9775</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>1.416400017738342</v>
+        <v>1.398224458694458</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9875</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>1.400562162399292</v>
+        <v>1.397541975975037</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B47" t="n">
-        <v>1.397997441291809</v>
+        <v>1.395596704483032</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B48" t="n">
-        <v>1.408595485687256</v>
+        <v>1.397464485168457</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B49" t="n">
-        <v>1.417137942314148</v>
+        <v>1.395635366439819</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="B50" t="n">
-        <v>1.408135480880737</v>
+        <v>1.395735216140747</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9825</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B51" t="n">
-        <v>1.415176529884338</v>
+        <v>1.399966583251953</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9825</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>1.431069488525391</v>
+        <v>1.395785226821899</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.985</v>
+        <v>0.995</v>
       </c>
       <c r="B53" t="n">
-        <v>1.426625542640686</v>
+        <v>1.39922749042511</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="B54" t="n">
-        <v>1.407027001380921</v>
+        <v>1.392482848167419</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9925</v>
+        <v>0.995</v>
       </c>
       <c r="B55" t="n">
-        <v>1.399276237487793</v>
+        <v>1.392147188186645</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B56" t="n">
-        <v>1.396407814025879</v>
+        <v>1.393287663459778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>1.395700616836548</v>
+        <v>1.393370904922485</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>1.393123779296875</v>
+        <v>1.39211877822876</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B59" t="n">
-        <v>1.394429364204407</v>
+        <v>1.393293957710266</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.985</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>1.42747344493866</v>
+        <v>1.395860953330994</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9925</v>
+        <v>0.995</v>
       </c>
       <c r="B61" t="n">
-        <v>1.409848070144653</v>
+        <v>1.40274881362915</v>
       </c>
     </row>
     <row r="62">
@@ -930,311 +930,311 @@
         <v>0.9925</v>
       </c>
       <c r="B62" t="n">
-        <v>1.409516406059265</v>
+        <v>1.393635535240173</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9925</v>
+        <v>0.995</v>
       </c>
       <c r="B63" t="n">
-        <v>1.398252959251404</v>
+        <v>1.393692855834961</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B64" t="n">
-        <v>1.393252758979797</v>
+        <v>1.390865912437439</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>1.404325370788574</v>
+        <v>1.392676296234131</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>1.392330083847046</v>
+        <v>1.391372351646423</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B67" t="n">
-        <v>1.395686140060425</v>
+        <v>1.39168595790863</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>1.393156495094299</v>
+        <v>1.392320985794067</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390460257530212</v>
+        <v>1.390049448013306</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>1.390859184265137</v>
+        <v>1.3907776927948</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390614733695984</v>
+        <v>1.390812420845032</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B72" t="n">
-        <v>1.390276789665222</v>
+        <v>1.3906125831604</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B73" t="n">
-        <v>1.415443305969238</v>
+        <v>1.399135575294495</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B74" t="n">
-        <v>1.394084000587463</v>
+        <v>1.391113185882568</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>1.400789494514465</v>
+        <v>1.391461820602417</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>1.394463720321655</v>
+        <v>1.390054135322571</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B77" t="n">
-        <v>1.389818072319031</v>
+        <v>1.389600462913513</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B78" t="n">
-        <v>1.391687808036804</v>
+        <v>1.390506720542908</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>1.392107610702515</v>
+        <v>1.39045515537262</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>1.392464747428894</v>
+        <v>1.391656842231751</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B81" t="n">
-        <v>1.391961350440979</v>
+        <v>1.391279692649841</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>1.395799517631531</v>
+        <v>1.390587639808655</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B83" t="n">
-        <v>1.391427612304688</v>
+        <v>1.390626463890076</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>1.389247550964355</v>
+        <v>1.389300589561462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B85" t="n">
-        <v>1.398942875862122</v>
+        <v>1.392679209709168</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B86" t="n">
-        <v>1.400062131881714</v>
+        <v>1.391403784751892</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.985</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B87" t="n">
-        <v>1.392499017715454</v>
+        <v>1.391263370513916</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.99</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B88" t="n">
-        <v>1.438449845314026</v>
+        <v>1.397424759864807</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>1.395904507637024</v>
+        <v>1.391303491592407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>1.391401124000549</v>
+        <v>1.389746809005737</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>1.392569117546081</v>
+        <v>1.391090197563171</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>1.390357418060303</v>
+        <v>1.389701571464539</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>1.403844208717346</v>
+        <v>1.39070200920105</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9925</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B94" t="n">
-        <v>1.427334537506104</v>
+        <v>1.391333918571472</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>1.391762127876282</v>
+        <v>1.389179010391235</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9925</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>1.394965405464172</v>
+        <v>1.391119823455811</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>1.440982570648193</v>
+        <v>1.393455080986023</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9775</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>1.432885265350342</v>
+        <v>1.392448287010193</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9825</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B99" t="n">
-        <v>1.403024644851685</v>
+        <v>1.391850538253784</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9875</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="B100" t="n">
-        <v>1.394178729057312</v>
+        <v>1.389000558853149</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>0.9975000000000001</v>
       </c>
       <c r="B101" t="n">
-        <v>1.418172979354858</v>
+        <v>1.390253214836121</v>
       </c>
     </row>
   </sheetData>
